--- a/EL at 50Apercm2.xlsx
+++ b/EL at 50Apercm2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Downloads\REU data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C031D79-7514-4DA6-93C6-38875B2E7A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68FE45F-ECA7-4BEF-AE7B-E6C7FB25B34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9FDAF4D-5CC5-4394-ACCA-8634564C37A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EL at 50Apercm2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -486,10 +486,15 @@
   <dimension ref="A1:F1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
